--- a/biology/Zoologie/Chelidonichthys_lucerna/Chelidonichthys_lucerna.xlsx
+++ b/biology/Zoologie/Chelidonichthys_lucerna/Chelidonichthys_lucerna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grondin perlon, Gallinette, Trigle hirondelle, Tombe
 Le grondin perlon, Chelidonichthys lucerna (ou lucernus selon les classifications - non admis par WoRMS), aussi appelé trigle hirondelle et galline ou gallinette dans le Sud de la France est une espèce de poissons téléostéens de la famille des Triglidae. Comme d'autres espèces, il est appelé "grondin" en raison des bruits ventraux qu'il produit, et qui ressemblent à des grondements.
-Le grondin perlon de plus de 1 kg est souvent appelé tombe[1].
+Le grondin perlon de plus de 1 kg est souvent appelé tombe.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grondin perlon affectionne les fonds sableux ou vaseux, mais ne rechigne pas devant un fond rocheux, en raison des nombreux lançons, blennies, jeunes congres... qui l'habitent.
 </t>
@@ -544,7 +558,9 @@
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grondin perlon est souvent pêché à l'appât naturel, mais il est déjà arrivé qu'il morde une cuillère dandinée très près du fond. Sa pêche n'est pas vraiment sportive, en raison de sa taille d'une trentaine de centimètres, mais des spécimens de 70 centimètres ont déjà été capturés.
 </t>
